--- a/reports/e2.xlsx
+++ b/reports/e2.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="29">
   <si>
     <t>TinkerPro IT</t>
   </si>
@@ -65,13 +65,13 @@
     <t>Serial No: 9995</t>
   </si>
   <si>
-    <t>Machine Name: DESKTOP-VJCK8A2</t>
+    <t>Machine Name: DESKTOP-GEVQTGR</t>
   </si>
   <si>
     <t xml:space="preserve">POS Terminal No: </t>
   </si>
   <si>
-    <t>Date and Time Generated: July 27, 2024 03:32:29 PM</t>
+    <t>Date and Time Generated: August 12, 2024 05:51:17 PM</t>
   </si>
   <si>
     <t>User ID: A003</t>
@@ -80,37 +80,28 @@
     <t>5%</t>
   </si>
   <si>
-    <t>July 27, 2024</t>
+    <t>July 30, 2024</t>
   </si>
   <si>
     <t>Test5 Test5</t>
   </si>
   <si>
+    <t>00000003</t>
+  </si>
+  <si>
+    <t>8,906.25</t>
+  </si>
+  <si>
+    <t>1,068.75</t>
+  </si>
+  <si>
+    <t>2,232.14</t>
+  </si>
+  <si>
+    <t>12,650.00</t>
+  </si>
+  <si>
     <t>00000002</t>
-  </si>
-  <si>
-    <t>19,375.00</t>
-  </si>
-  <si>
-    <t>2,325.00</t>
-  </si>
-  <si>
-    <t>2,232.14</t>
-  </si>
-  <si>
-    <t>24,375.00</t>
-  </si>
-  <si>
-    <t>00000001</t>
-  </si>
-  <si>
-    <t>8,660.71</t>
-  </si>
-  <si>
-    <t>1,039.29</t>
-  </si>
-  <si>
-    <t>12,375.00</t>
   </si>
 </sst>
 </file>
@@ -585,10 +576,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:K16"/>
+  <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A15" sqref="A15:K15"/>
+      <selection activeCell="A17" sqref="A17:K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -747,37 +738,37 @@
       <c r="K14" s="3"/>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="3" t="s">
+      <c r="A15" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15">
         <v>2224455523</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15">
         <v>3434324423</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="E15" t="s">
         <v>23</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="F15" t="s">
         <v>24</v>
       </c>
-      <c r="G15" s="3" t="s">
+      <c r="G15" t="s">
         <v>25</v>
       </c>
-      <c r="H15" s="3" t="s">
+      <c r="H15" t="s">
         <v>26</v>
       </c>
-      <c r="I15" s="3">
+      <c r="I15">
         <v>125.0</v>
       </c>
-      <c r="J15" s="3">
+      <c r="J15">
         <v>0.0</v>
       </c>
-      <c r="K15" s="3" t="s">
+      <c r="K15" t="s">
         <v>27</v>
       </c>
     </row>
@@ -797,24 +788,37 @@
       <c r="E16" t="s">
         <v>28</v>
       </c>
-      <c r="F16" t="s">
-        <v>29</v>
-      </c>
-      <c r="G16" t="s">
-        <v>30</v>
-      </c>
-      <c r="H16" t="s">
-        <v>26</v>
+      <c r="F16">
+        <v>0.0</v>
+      </c>
+      <c r="G16">
+        <v>0.0</v>
+      </c>
+      <c r="H16">
+        <v>218.75</v>
       </c>
       <c r="I16">
-        <v>125.0</v>
+        <v>10.94</v>
       </c>
       <c r="J16">
         <v>0.0</v>
       </c>
-      <c r="K16" t="s">
-        <v>31</v>
-      </c>
+      <c r="K16">
+        <v>234.06</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
     </row>
   </sheetData>
   <mergeCells>
